--- a/assets/sample/SampleCSV.xlsx
+++ b/assets/sample/SampleCSV.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ap-dashboard\assets\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmar Malazrte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E83C2E-591F-49B5-9D00-AD0CDE704D77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65127E46-22F4-470F-8EC4-E5299CF0960F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{462E1B08-A712-4076-B7C6-5AE570E96F72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{462E1B08-A712-4076-B7C6-5AE570E96F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Project" sheetId="2" r:id="rId2"/>
-    <sheet name="Supplier" sheetId="3" r:id="rId3"/>
-    <sheet name="Company" sheetId="4" r:id="rId4"/>
+    <sheet name="Department" sheetId="5" r:id="rId2"/>
+    <sheet name="Project" sheetId="2" r:id="rId3"/>
+    <sheet name="Supplier" sheetId="3" r:id="rId4"/>
+    <sheet name="Company" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="678">
   <si>
     <t>Bill No.</t>
   </si>
@@ -1995,12 +1996,87 @@
   </si>
   <si>
     <t>COMPANY NAME</t>
+  </si>
+  <si>
+    <t>011-222</t>
+  </si>
+  <si>
+    <t>022-222</t>
+  </si>
+  <si>
+    <t>31 days</t>
+  </si>
+  <si>
+    <t>DEPARTMENT NAME</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Ancillary</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>Business Process</t>
+  </si>
+  <si>
+    <t>Executive Office</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>KENZO</t>
+  </si>
+  <si>
+    <t>Leasing</t>
+  </si>
+  <si>
+    <t>Logistic</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Operations-Contruction</t>
+  </si>
+  <si>
+    <t>PMO-Cebu</t>
+  </si>
+  <si>
+    <t>PMO-Manila</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>Purchasing</t>
+  </si>
+  <si>
+    <t>Retail Business</t>
+  </si>
+  <si>
+    <t>and make sure the format of the date is "yyyy-mm-dd"</t>
+  </si>
+  <si>
+    <t>and the date is "yyyy-mm-dd" format.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2145,7 +2221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2349,6 +2425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2510,7 +2592,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -2530,6 +2612,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2885,14 +2971,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A10DE9C-4113-4E88-BC7C-9F06D1465228}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2939,6 +3028,39 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2">
+        <v>12121</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <v>44904</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="11">
+        <v>44905</v>
+      </c>
       <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2948,6 +3070,39 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3">
+        <v>1111</v>
+      </c>
+      <c r="C3" s="10">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10">
+        <v>9</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>44905</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="K3" s="11">
+        <v>44906</v>
+      </c>
       <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2964,6 +3119,15 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M5" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2972,11 +3136,181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D065B252-AA0F-400C-B19C-79C8EB818F7C}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609C4A0B-CEA7-42F0-BAC4-41DD0F83BE23}">
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,12 +3587,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8585053-43CD-49E5-93CE-D5CAF97B0F25}">
   <dimension ref="A1:C576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8650,7 +8984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF106D57-4A9D-479C-B8A1-CBAD4A82543F}">
   <dimension ref="A1:B24"/>
   <sheetViews>
